--- a/11-24-24 to 11-30-24 Madison Schedule.xlsx
+++ b/11-24-24 to 11-30-24 Madison Schedule.xlsx
@@ -658,7 +658,7 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>*This is a slower week due to Thanksgiving</t>
+          <t>This is a slower week due to Thanksgiving</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>

--- a/11-24-24 to 11-30-24 Madison Schedule.xlsx
+++ b/11-24-24 to 11-30-24 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y56"/>
+  <dimension ref="A1:Y55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1101,10 +1101,15 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Driver,
+Gray Van</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
@@ -1119,7 +1124,7 @@
       <c r="K19" t="inlineStr">
         <is>
           <t>Driver,
-Gray Van</t>
+Silver Van</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
@@ -1149,13 +1154,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Driver,
-Gray Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -1197,7 +1201,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1236,7 +1240,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1275,7 +1279,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1318,7 +1322,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1354,21 +1358,9 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
@@ -1429,7 +1421,11 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -1462,7 +1458,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1497,7 +1493,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>KELLEY #63, SUN PRAIRIE MOBIL</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1528,7 +1524,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>KELLEY #63, SUN PRAIRIE MOBIL</t>
+          <t>1010 DAVISON DR</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1571,7 +1567,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1010 DAVISON DR</t>
+          <t>https://goo.gl/maps/AcJV9qEV2xQ2</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1610,7 +1606,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/AcJV9qEV2xQ2</t>
+          <t>*IL Meet is 5:45 am at IL Office</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1647,11 +1643,7 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:45 am at IL Office</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
@@ -1689,9 +1681,21 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>@ Store, Camry 3, Equip</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
@@ -1730,17 +1734,17 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>@ Store, Camry 3, Equip</t>
+          <t>Meet @ Store</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -1782,17 +1786,18 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Meet @ Store</t>
+          <t>Driver,
+Corolla</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -1821,18 +1826,17 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Driver,
-Corolla</t>
+          <t>work w/ Taylor</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -1861,17 +1865,17 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>work w/ Taylor</t>
+          <t>Meet @ Store, Until 12:30</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -1900,19 +1904,15 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Meet @ Store, Until 12:30</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1937,16 +1937,8 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
@@ -2000,7 +1992,11 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -2029,7 +2025,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2060,7 +2056,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #36, LOVES PARK MOBIL</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2091,7 +2087,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>KELLEY #36, LOVES PARK MOBIL</t>
+          <t>6224 N 2ND ST</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2122,7 +2118,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>6224 N 2ND ST</t>
+          <t>https://goo.gl/maps/baMuHHcvqPF2</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2151,11 +2147,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/baMuHHcvqPF2</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
@@ -2181,9 +2173,21 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2210,19 +2214,15 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2249,12 +2249,12 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -2284,12 +2284,12 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -2319,12 +2319,12 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -2354,12 +2354,12 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -2389,15 +2389,19 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>work w/ Angela</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2424,17 +2428,17 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>work w/ Angela</t>
+          <t>Until 8:15</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -2456,45 +2460,6 @@
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr"/>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
